--- a/tables/1980/1980_Table27.xlsx
+++ b/tables/1980/1980_Table27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10920" windowHeight="2730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10920" windowHeight="2730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -25,42 +25,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>White en Monyo</t>
-  </si>
-  <si>
-    <t>Alot  Bikon</t>
-  </si>
-  <si>
-    <t>Ekali 6</t>
-  </si>
-  <si>
-    <t>Ekali 1</t>
-  </si>
-  <si>
-    <t>Olele 1</t>
-  </si>
-  <si>
-    <t>Etoudi 2</t>
-  </si>
-  <si>
-    <t>Mbong Avie 1</t>
-  </si>
-  <si>
-    <t>Clone</t>
-  </si>
-  <si>
-    <t>Yield t/ha</t>
-  </si>
-  <si>
-    <t>Fresh root size in weight (g)</t>
-  </si>
-  <si>
-    <t>CMD Score</t>
-  </si>
-  <si>
-    <t>Table 28. Yield, mean tuber weight and mean CMD infection of the 7 best local clones evaluated (Nkofbinsson 1979-80).</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+  <si>
+    <t>Sweet</t>
+  </si>
+  <si>
+    <t>179/2</t>
+  </si>
+  <si>
+    <t>Bitter</t>
+  </si>
+  <si>
+    <t>70/4</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>344/6</t>
+  </si>
+  <si>
+    <t>Coll. 45</t>
+  </si>
+  <si>
+    <t>174/2</t>
+  </si>
+  <si>
+    <t>122/2</t>
+  </si>
+  <si>
+    <t>A 56</t>
+  </si>
+  <si>
+    <t>Not liked</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>Variety</t>
+  </si>
+  <si>
+    <t>Root taste</t>
+  </si>
+  <si>
+    <t>Ndika</t>
+  </si>
+  <si>
+    <t>Pondu'</t>
+  </si>
+  <si>
+    <t>Nsesa</t>
+  </si>
+  <si>
+    <t>Fufu'</t>
+  </si>
+  <si>
+    <t>Chikwangue'</t>
+  </si>
+  <si>
+    <t>Table 27. Tuber and leaf preparation quality for 7 high-yielding varieties</t>
   </si>
 </sst>
 </file>
@@ -96,8 +120,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,130 +409,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>62</v>
-      </c>
-      <c r="C2">
-        <v>654</v>
-      </c>
-      <c r="D2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>53</v>
-      </c>
-      <c r="C3">
-        <v>854</v>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="D3">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1.7</v>
+      </c>
+      <c r="F3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1.9</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>47</v>
-      </c>
-      <c r="C4">
-        <v>398</v>
-      </c>
-      <c r="D4">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1.9</v>
+      </c>
+      <c r="E5">
+        <v>0.9</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1.6</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1.9</v>
+      </c>
+      <c r="E7">
+        <v>1.6</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1.9</v>
+      </c>
+      <c r="E8">
+        <v>1.2</v>
+      </c>
+      <c r="F8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>47</v>
-      </c>
-      <c r="C5">
-        <v>657</v>
-      </c>
-      <c r="D5">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>46</v>
-      </c>
-      <c r="C6">
-        <v>303</v>
-      </c>
-      <c r="D6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>39</v>
-      </c>
-      <c r="C7">
-        <v>448</v>
-      </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>36</v>
-      </c>
-      <c r="C8">
-        <v>563</v>
-      </c>
-      <c r="D8">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
+      <c r="D9">
+        <v>2.1</v>
+      </c>
+      <c r="E9">
+        <v>1.5</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2864</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>1.6</v>
+      </c>
+      <c r="E10">
+        <v>1.8</v>
+      </c>
+      <c r="F10">
+        <v>1.6</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -510,15 +612,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
